--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2519222.786946042</v>
+        <v>-2522076.720203069</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>72.32221858876053</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>150.3291151000916</v>
+        <v>413.3734762915973</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>319.7167556102116</v>
       </c>
       <c r="I2" t="n">
-        <v>136.0980462499687</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.68016260809956</v>
+        <v>28.68016260809928</v>
       </c>
       <c r="S2" t="n">
-        <v>165.05702945488</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>214.6505085580951</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1913120099535</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.8132775842676</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>102.2661233681972</v>
       </c>
       <c r="I3" t="n">
-        <v>53.85659251710588</v>
+        <v>53.8565925171058</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>36.0680493153844</v>
+        <v>36.06804931538424</v>
       </c>
       <c r="S3" t="n">
         <v>152.5096588980035</v>
       </c>
       <c r="T3" t="n">
-        <v>196.0040539091872</v>
+        <v>164.2841478435874</v>
       </c>
       <c r="U3" t="n">
         <v>225.8734711758774</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>146.2027716139795</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.28112972266</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.5765785596543</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>188.9905474126558</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>49.9467516048418</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>100.6934717861137</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>202.6692158125353</v>
+        <v>39.66454238999675</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3539164297619</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>220.3365286355997</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>98.2054987677615</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.71156409265971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>142.6584215897767</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>51.50556704456729</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652616</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352486</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2959,7 +2959,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652545</v>
+        <v>56.98118882652557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4183,7 +4183,7 @@
         <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1069.249500086836</v>
+        <v>1663.023006715919</v>
       </c>
       <c r="C2" t="n">
-        <v>700.2869831464243</v>
+        <v>1663.023006715919</v>
       </c>
       <c r="D2" t="n">
-        <v>342.0212845396738</v>
+        <v>1589.970260666666</v>
       </c>
       <c r="E2" t="n">
-        <v>342.0212845396738</v>
+        <v>1204.182008068422</v>
       </c>
       <c r="F2" t="n">
-        <v>342.0212845396738</v>
+        <v>793.1961032788139</v>
       </c>
       <c r="G2" t="n">
-        <v>190.1736935294802</v>
+        <v>375.6471373277054</v>
       </c>
       <c r="H2" t="n">
-        <v>190.1736935294802</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>121.9231429395658</v>
+        <v>202.9773215020675</v>
       </c>
       <c r="K2" t="n">
-        <v>467.8933185904361</v>
+        <v>537.8199721736705</v>
       </c>
       <c r="L2" t="n">
-        <v>949.3765418031861</v>
+        <v>1019.303195386421</v>
       </c>
       <c r="M2" t="n">
-        <v>1056.707546827525</v>
+        <v>1571.652598568665</v>
       </c>
       <c r="N2" t="n">
-        <v>1603.362543270966</v>
+        <v>2118.307595012107</v>
       </c>
       <c r="O2" t="n">
-        <v>2074.365717271179</v>
+        <v>2589.310769012321</v>
       </c>
       <c r="P2" t="n">
-        <v>2438.681646329268</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2606.07611576034</v>
       </c>
       <c r="S2" t="n">
-        <v>2439.351843583694</v>
+        <v>2606.07611576034</v>
       </c>
       <c r="T2" t="n">
-        <v>2439.351843583694</v>
+        <v>2389.257420247113</v>
       </c>
       <c r="U2" t="n">
-        <v>2185.623245593842</v>
+        <v>2389.257420247113</v>
       </c>
       <c r="V2" t="n">
-        <v>2185.623245593842</v>
+        <v>2389.257420247113</v>
       </c>
       <c r="W2" t="n">
-        <v>1832.854590323728</v>
+        <v>2036.488764976999</v>
       </c>
       <c r="X2" t="n">
-        <v>1459.388832062648</v>
+        <v>1663.023006715919</v>
       </c>
       <c r="Y2" t="n">
-        <v>1069.249500086836</v>
+        <v>1663.023006715919</v>
       </c>
     </row>
     <row r="3">
@@ -4392,37 +4392,37 @@
         <v>653.8607984687219</v>
       </c>
       <c r="E3" t="n">
-        <v>494.6233434632665</v>
+        <v>494.6233434632663</v>
       </c>
       <c r="F3" t="n">
-        <v>348.0887854901514</v>
+        <v>348.0887854901513</v>
       </c>
       <c r="G3" t="n">
-        <v>210.4006325550706</v>
+        <v>210.4006325550704</v>
       </c>
       <c r="H3" t="n">
-        <v>107.10151804174</v>
+        <v>107.1015180417399</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>148.5111353690304</v>
+        <v>148.5111353690307</v>
       </c>
       <c r="K3" t="n">
-        <v>438.886897762967</v>
+        <v>438.8868977629677</v>
       </c>
       <c r="L3" t="n">
-        <v>890.7373411832241</v>
+        <v>890.7373411832252</v>
       </c>
       <c r="M3" t="n">
-        <v>1429.765912246294</v>
+        <v>1470.00471788642</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.522835534286</v>
+        <v>2080.31059177453</v>
       </c>
       <c r="O3" t="n">
-        <v>2057.417798960301</v>
+        <v>2182.281859116584</v>
       </c>
       <c r="P3" t="n">
         <v>2435.203805658289</v>
@@ -4437,22 +4437,22 @@
         <v>2444.563443431766</v>
       </c>
       <c r="T3" t="n">
-        <v>2246.579550594203</v>
+        <v>2278.619859751374</v>
       </c>
       <c r="U3" t="n">
-        <v>2018.424529204428</v>
+        <v>2050.464838361599</v>
       </c>
       <c r="V3" t="n">
-        <v>1783.272420972685</v>
+        <v>1815.312730129856</v>
       </c>
       <c r="W3" t="n">
-        <v>1529.035064244483</v>
+        <v>1561.075373401655</v>
       </c>
       <c r="X3" t="n">
-        <v>1321.183564038951</v>
+        <v>1353.223873196122</v>
       </c>
       <c r="Y3" t="n">
-        <v>1113.423265273997</v>
+        <v>1145.463574431168</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1958.337116997734</v>
+        <v>2124.836227800152</v>
       </c>
       <c r="C4" t="n">
-        <v>1958.337116997734</v>
+        <v>1955.900044872245</v>
       </c>
       <c r="D4" t="n">
-        <v>1808.220477585399</v>
+        <v>1955.900044872245</v>
       </c>
       <c r="E4" t="n">
-        <v>1808.220477585399</v>
+        <v>1955.900044872245</v>
       </c>
       <c r="F4" t="n">
-        <v>1808.220477585399</v>
+        <v>1955.900044872245</v>
       </c>
       <c r="G4" t="n">
-        <v>1808.220477585399</v>
+        <v>1808.220477585397</v>
       </c>
       <c r="H4" t="n">
-        <v>1808.220477585399</v>
+        <v>1808.220477585397</v>
       </c>
       <c r="I4" t="n">
-        <v>1808.220477585399</v>
+        <v>1808.220477585397</v>
       </c>
       <c r="J4" t="n">
-        <v>1808.220477585399</v>
+        <v>1808.220477585397</v>
       </c>
       <c r="K4" t="n">
-        <v>1885.712007965404</v>
+        <v>1885.712007965402</v>
       </c>
       <c r="L4" t="n">
-        <v>2040.400922054641</v>
+        <v>2040.40092205464</v>
       </c>
       <c r="M4" t="n">
-        <v>2213.887816070071</v>
+        <v>2213.88781607007</v>
       </c>
       <c r="N4" t="n">
         <v>2388.68419592994</v>
@@ -4522,16 +4522,16 @@
         <v>2635.045976980643</v>
       </c>
       <c r="V4" t="n">
-        <v>2380.361488774756</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W4" t="n">
-        <v>2090.944318737795</v>
+        <v>2345.628806943682</v>
       </c>
       <c r="X4" t="n">
-        <v>2090.944318737795</v>
+        <v>2345.628806943682</v>
       </c>
       <c r="Y4" t="n">
-        <v>1958.337116997734</v>
+        <v>2124.836227800152</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>914.6502878797686</v>
+        <v>972.8094823977774</v>
       </c>
       <c r="C5" t="n">
-        <v>914.6502878797686</v>
+        <v>972.8094823977774</v>
       </c>
       <c r="D5" t="n">
-        <v>914.6502878797686</v>
+        <v>972.8094823977774</v>
       </c>
       <c r="E5" t="n">
-        <v>914.6502878797686</v>
+        <v>972.8094823977774</v>
       </c>
       <c r="F5" t="n">
-        <v>503.664383090161</v>
+        <v>561.8235776081699</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>1197.621189819594</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1384.320602645002</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N5" t="n">
-        <v>1623.585605852676</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.7680521339</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.999396863786</v>
+        <v>1736.414572634669</v>
       </c>
       <c r="X5" t="n">
-        <v>1421.533638602706</v>
+        <v>1362.948814373589</v>
       </c>
       <c r="Y5" t="n">
-        <v>1031.394306626894</v>
+        <v>972.8094823977774</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>477.2888087846896</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>981.6503486508082</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>1622.195698117913</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N6" t="n">
-        <v>1820.852439770578</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
         <v>1980.364752439338</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>371.7537418798555</v>
+        <v>515.4951877916146</v>
       </c>
       <c r="C7" t="n">
-        <v>202.8175589519486</v>
+        <v>515.4951877916146</v>
       </c>
       <c r="D7" t="n">
-        <v>52.70091953961285</v>
+        <v>365.3785483792789</v>
       </c>
       <c r="E7" t="n">
-        <v>52.70091953961285</v>
+        <v>217.4654547968858</v>
       </c>
       <c r="F7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4750,25 +4750,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>1002.184336751643</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T7" t="n">
-        <v>1002.184336751643</v>
+        <v>743.484738689632</v>
       </c>
       <c r="U7" t="n">
-        <v>1002.184336751643</v>
+        <v>743.484738689632</v>
       </c>
       <c r="V7" t="n">
-        <v>1002.184336751643</v>
+        <v>743.484738689632</v>
       </c>
       <c r="W7" t="n">
-        <v>1002.184336751643</v>
+        <v>743.484738689632</v>
       </c>
       <c r="X7" t="n">
-        <v>774.1947858536254</v>
+        <v>515.4951877916146</v>
       </c>
       <c r="Y7" t="n">
-        <v>553.4022067100952</v>
+        <v>515.4951877916146</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1943.051672525278</v>
+        <v>1623.626351984771</v>
       </c>
       <c r="C8" t="n">
-        <v>1943.051672525278</v>
+        <v>1254.663835044359</v>
       </c>
       <c r="D8" t="n">
-        <v>1584.785973918528</v>
+        <v>896.3981364376087</v>
       </c>
       <c r="E8" t="n">
-        <v>1198.997721320284</v>
+        <v>510.6098838393645</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0118165306759</v>
+        <v>503.664383090161</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1030.215540799241</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M8" t="n">
-        <v>1661.933351782553</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>2000.577785302793</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2274.114559868849</v>
+        <v>2594.980782647312</v>
       </c>
       <c r="U8" t="n">
-        <v>2274.114559868849</v>
+        <v>2341.289079392463</v>
       </c>
       <c r="V8" t="n">
-        <v>1943.051672525278</v>
+        <v>2010.226192048893</v>
       </c>
       <c r="W8" t="n">
-        <v>1943.051672525278</v>
+        <v>2010.226192048893</v>
       </c>
       <c r="X8" t="n">
-        <v>1943.051672525278</v>
+        <v>2010.226192048893</v>
       </c>
       <c r="Y8" t="n">
-        <v>1943.051672525278</v>
+        <v>2010.226192048893</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>843.4113519543016</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1483.956701421406</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N9" t="n">
-        <v>2136.130580724115</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
         <v>2404.332520920175</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.6562808250276</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="C10" t="n">
-        <v>371.7200978971207</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="D10" t="n">
-        <v>371.7200978971207</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E10" t="n">
-        <v>371.7200978971207</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F10" t="n">
-        <v>224.8301503992104</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G10" t="n">
-        <v>224.8301503992104</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4993,19 +4993,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>765.409422787077</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998958</v>
+        <v>510.7249345811901</v>
       </c>
       <c r="W10" t="n">
-        <v>763.218430961997</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="X10" t="n">
-        <v>540.6562808250276</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="Y10" t="n">
-        <v>540.6562808250276</v>
+        <v>221.3077645442295</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5130,10 +5130,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5887,55 +5887,55 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
         <v>2117.354959541324</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>783.5579673960132</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6217844681063</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2302.863667833011</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2083.262202855953</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1794.18697620015</v>
       </c>
       <c r="V25" t="n">
-        <v>1703.405732304761</v>
+        <v>1539.502487994263</v>
       </c>
       <c r="W25" t="n">
-        <v>1413.9885622678</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.999011369783</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y25" t="n">
-        <v>965.2064322262529</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6409,16 +6409,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6552,13 +6552,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580114</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384016</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,25 +6883,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,19 +7354,19 @@
         <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7497,16 +7497,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7558,19 +7558,19 @@
         <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7734,10 +7734,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.22370753318354</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>312.9054883496821</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
@@ -7994,10 +7994,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>13.96718192114213</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>425.0598055276529</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>192.3374553507623</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>45.3846366825168</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>240.7280987119435</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>250.7308605730626</v>
       </c>
       <c r="N8" t="n">
-        <v>145.7678996245036</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,19 +8535,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>207.4678568043326</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-4.73833677133118e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83.71486927906145</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.0443611915057</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>319.7167556102117</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.0980462499685</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>165.0570294548799</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1913120099535</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.92280757678995</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.1119895437277</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>87.30352362943475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>67.31863952450735</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>134.8730892594351</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>38.36786441186791</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>200.6320762792607</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -26314,28 +26314,28 @@
         <v>16230.4555807183</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225017</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
@@ -26347,10 +26347,10 @@
         <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>683207.6005908835</v>
+        <v>683207.6005908847</v>
       </c>
       <c r="C3" t="n">
-        <v>103419.2281619182</v>
+        <v>103419.2281619172</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765846</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191788.7103939126</v>
+        <v>191788.7103939125</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363172</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112907.4414570505</v>
+        <v>112907.4414570504</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>189891.8124216189</v>
+        <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707379</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707395</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707424</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
         <v>14888.28375980088</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="L4" t="n">
         <v>14888.28375980083</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980086</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980081</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="O4" t="n">
         <v>14888.28375980082</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84142.20015004484</v>
+        <v>84142.20015004485</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-864026.7866172605</v>
+        <v>-864456.3454838505</v>
       </c>
       <c r="C6" t="n">
-        <v>-359403.0741744055</v>
+        <v>-359403.0741744045</v>
       </c>
       <c r="D6" t="n">
-        <v>-255983.8460124874</v>
+        <v>-255983.8460124873</v>
       </c>
       <c r="E6" t="n">
-        <v>-863529.6366049489</v>
+        <v>-863564.3745303844</v>
       </c>
       <c r="F6" t="n">
-        <v>-87841.28932836436</v>
+        <v>-87876.02725380003</v>
       </c>
       <c r="G6" t="n">
-        <v>-87841.28932836431</v>
+        <v>-87876.02725380001</v>
       </c>
       <c r="H6" t="n">
-        <v>-87841.28932836431</v>
+        <v>-87876.02725380006</v>
       </c>
       <c r="I6" t="n">
-        <v>-87841.28932836438</v>
+        <v>-87876.02725380001</v>
       </c>
       <c r="J6" t="n">
         <v>-289315.0657610217</v>
       </c>
       <c r="K6" t="n">
-        <v>-97526.35536710912</v>
+        <v>-97526.35536710915</v>
       </c>
       <c r="L6" t="n">
         <v>-97526.35536710915</v>
@@ -26555,10 +26555,10 @@
         <v>-225603.9521828229</v>
       </c>
       <c r="N6" t="n">
-        <v>-97526.35536710911</v>
+        <v>-97526.35536710915</v>
       </c>
       <c r="O6" t="n">
-        <v>-116954.0733607409</v>
+        <v>-116954.0733607408</v>
       </c>
       <c r="P6" t="n">
         <v>-97526.35536710914</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26713,13 +26713,13 @@
         <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>24.2846474920397</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>479.9037293550031</v>
+        <v>479.9037293550042</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>479.9037293550031</v>
+        <v>479.9037293550042</v>
       </c>
       <c r="C3" t="n">
-        <v>113.572370983062</v>
+        <v>113.5723709830609</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>198.645953752861</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>214.6505085580951</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.7199060655997</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>31.71990606559973</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1255791907694</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>154.5329782892561</v>
       </c>
       <c r="I4" t="n">
-        <v>108.3135421588363</v>
+        <v>129.4255317025639</v>
       </c>
       <c r="J4" t="n">
-        <v>32.17538826103576</v>
+        <v>32.17538826103561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.69658011908892</v>
+        <v>13.69658011908875</v>
       </c>
       <c r="R4" t="n">
         <v>138.3818529281556</v>
@@ -27588,13 +27588,13 @@
         <v>208.9350332964224</v>
       </c>
       <c r="T4" t="n">
-        <v>224.2479705299725</v>
+        <v>224.2479705299724</v>
       </c>
       <c r="U4" t="n">
         <v>286.2718257109806</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>267.1572631038263</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>223.9263565332809</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27795,7 +27795,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>155.4191302952768</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>122.679432934645</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>9.982647302430706</v>
+        <v>172.9873207249693</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>1.906738228335144</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.373126753437447</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.929261223537699</v>
+        <v>1.929261223537704</v>
       </c>
       <c r="H2" t="n">
-        <v>19.75804650555547</v>
+        <v>19.75804650555552</v>
       </c>
       <c r="I2" t="n">
-        <v>74.37784332043722</v>
+        <v>74.37784332043741</v>
       </c>
       <c r="J2" t="n">
-        <v>163.743634771233</v>
+        <v>163.7436347712333</v>
       </c>
       <c r="K2" t="n">
-        <v>245.4092623635838</v>
+        <v>245.4092623635844</v>
       </c>
       <c r="L2" t="n">
-        <v>304.4518905334257</v>
+        <v>304.4518905334265</v>
       </c>
       <c r="M2" t="n">
-        <v>338.7613898175143</v>
+        <v>338.7613898175151</v>
       </c>
       <c r="N2" t="n">
-        <v>344.2429032688908</v>
+        <v>344.2429032688916</v>
       </c>
       <c r="O2" t="n">
-        <v>325.0588119773378</v>
+        <v>325.0588119773386</v>
       </c>
       <c r="P2" t="n">
-        <v>277.4301755212508</v>
+        <v>277.4301755212514</v>
       </c>
       <c r="Q2" t="n">
-        <v>208.3385079533069</v>
+        <v>208.3385079533074</v>
       </c>
       <c r="R2" t="n">
-        <v>121.1889553330501</v>
+        <v>121.1889553330504</v>
       </c>
       <c r="S2" t="n">
-        <v>43.96304013136537</v>
+        <v>43.96304013136547</v>
       </c>
       <c r="T2" t="n">
-        <v>8.445341006036283</v>
+        <v>8.445341006036303</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1543408978830159</v>
+        <v>0.1543408978830163</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.032245757480573</v>
+        <v>1.032245757480575</v>
       </c>
       <c r="H3" t="n">
-        <v>9.969320868299217</v>
+        <v>9.96932086829924</v>
       </c>
       <c r="I3" t="n">
-        <v>35.5400403343092</v>
+        <v>35.54004033430928</v>
       </c>
       <c r="J3" t="n">
-        <v>97.52458711354834</v>
+        <v>97.52458711354856</v>
       </c>
       <c r="K3" t="n">
-        <v>166.6850528647467</v>
+        <v>166.6850528647471</v>
       </c>
       <c r="L3" t="n">
-        <v>224.1286237898059</v>
+        <v>224.1286237898065</v>
       </c>
       <c r="M3" t="n">
-        <v>261.5475324984766</v>
+        <v>261.5475324984773</v>
       </c>
       <c r="N3" t="n">
-        <v>268.4699174247389</v>
+        <v>268.4699174247396</v>
       </c>
       <c r="O3" t="n">
-        <v>245.5975245879326</v>
+        <v>245.5975245879332</v>
       </c>
       <c r="P3" t="n">
-        <v>197.1136657420578</v>
+        <v>197.1136657420583</v>
       </c>
       <c r="Q3" t="n">
-        <v>131.7652654636605</v>
+        <v>131.7652654636608</v>
       </c>
       <c r="R3" t="n">
-        <v>64.08978483725873</v>
+        <v>64.08978483725889</v>
       </c>
       <c r="S3" t="n">
-        <v>19.17351220583431</v>
+        <v>19.17351220583435</v>
       </c>
       <c r="T3" t="n">
-        <v>4.160674785634412</v>
+        <v>4.160674785634422</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06791090509740612</v>
+        <v>0.06791090509740629</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8654001676893497</v>
+        <v>0.8654001676893517</v>
       </c>
       <c r="H4" t="n">
-        <v>7.694194218183497</v>
+        <v>7.694194218183514</v>
       </c>
       <c r="I4" t="n">
-        <v>26.02494322469427</v>
+        <v>26.02494322469433</v>
       </c>
       <c r="J4" t="n">
-        <v>61.18379185563702</v>
+        <v>61.18379185563717</v>
       </c>
       <c r="K4" t="n">
-        <v>100.543764936999</v>
+        <v>100.5437649369992</v>
       </c>
       <c r="L4" t="n">
-        <v>128.6614031126512</v>
+        <v>128.6614031126515</v>
       </c>
       <c r="M4" t="n">
-        <v>135.6554099224314</v>
+        <v>135.6554099224317</v>
       </c>
       <c r="N4" t="n">
-        <v>132.4298274792258</v>
+        <v>132.4298274792261</v>
       </c>
       <c r="O4" t="n">
-        <v>122.3203800657638</v>
+        <v>122.3203800657641</v>
       </c>
       <c r="P4" t="n">
-        <v>104.6662166449009</v>
+        <v>104.6662166449012</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.46546313260546</v>
+        <v>72.46546313260563</v>
       </c>
       <c r="R4" t="n">
-        <v>38.91153844901384</v>
+        <v>38.91153844901393</v>
       </c>
       <c r="S4" t="n">
-        <v>15.08156474054984</v>
+        <v>15.08156474054988</v>
       </c>
       <c r="T4" t="n">
-        <v>3.697618898309039</v>
+        <v>3.697618898309047</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04720364551032822</v>
+        <v>0.04720364551032833</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511221</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,7 +32798,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>369.1789913099997</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>338.6542681503486</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>426.9501404413636</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>69.92143777773022</v>
+        <v>151.7943454166208</v>
       </c>
       <c r="K2" t="n">
-        <v>349.464823889768</v>
+        <v>338.2248996682859</v>
       </c>
       <c r="L2" t="n">
-        <v>486.3466901138889</v>
+        <v>486.3466901138897</v>
       </c>
       <c r="M2" t="n">
-        <v>108.4151565902415</v>
+        <v>557.9286900830748</v>
       </c>
       <c r="N2" t="n">
-        <v>552.1767640842841</v>
+        <v>552.1767640842849</v>
       </c>
       <c r="O2" t="n">
-        <v>475.7607818183964</v>
+        <v>475.7607818183972</v>
       </c>
       <c r="P2" t="n">
-        <v>367.9958879374639</v>
+        <v>46.1971797659819</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.3478087387621</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.77799578729048</v>
+        <v>96.77799578729071</v>
       </c>
       <c r="K3" t="n">
-        <v>293.3088509029663</v>
+        <v>293.3088509029667</v>
       </c>
       <c r="L3" t="n">
-        <v>456.4145893133909</v>
+        <v>456.4145893133915</v>
       </c>
       <c r="M3" t="n">
-        <v>544.4733041041112</v>
+        <v>585.1185623264589</v>
       </c>
       <c r="N3" t="n">
-        <v>137.1282053414056</v>
+        <v>616.4705796849598</v>
       </c>
       <c r="O3" t="n">
-        <v>496.8635994202176</v>
+        <v>103.0012801434887</v>
       </c>
       <c r="P3" t="n">
-        <v>381.6020269676647</v>
+        <v>255.4767136784903</v>
       </c>
       <c r="Q3" t="n">
-        <v>201.8607791134881</v>
+        <v>201.8607791134884</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.27427311111612</v>
+        <v>78.27427311111636</v>
       </c>
       <c r="L4" t="n">
-        <v>156.2514283729673</v>
+        <v>156.2514283729676</v>
       </c>
       <c r="M4" t="n">
-        <v>175.239286884272</v>
+        <v>175.2392868842723</v>
       </c>
       <c r="N4" t="n">
-        <v>176.5619998584544</v>
+        <v>176.5619998584547</v>
       </c>
       <c r="O4" t="n">
-        <v>146.9055079798034</v>
+        <v>146.9055079798037</v>
       </c>
       <c r="P4" t="n">
-        <v>101.9447759097944</v>
+        <v>101.9447759097947</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>241.6818214218929</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35015,19 +35015,19 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>309.0188256446273</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>439.3161260532724</v>
       </c>
       <c r="N8" t="n">
-        <v>342.0650843638797</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>346.0836123757406</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>197.8432633066776</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663299</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>226.5827468655553</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,16 +37227,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980851</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>196.0580237059041</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>295.6084283580303</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
